--- a/Protokoll 7/Versuch 22 Berechnungen.xlsx
+++ b/Protokoll 7/Versuch 22 Berechnungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="180" yWindow="2280" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +62,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="23">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,15 +445,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:13">
       <c r="A1">
         <v>13.22</v>
       </c>
@@ -402,34 +469,116 @@
         <f>0.3/SQRT(29)</f>
         <v>5.5708601453115562E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1">
+        <f>C1/(2*3.141592)</f>
+        <v>7.255271673812469E-2</v>
+      </c>
+      <c r="F1">
+        <f>E1*E5</f>
+        <v>0.12511310919075122</v>
+      </c>
+      <c r="G1">
+        <f>SQRT((D1/C1)^2+(D5/C5)^2)/(2*3.1415)</f>
+        <v>1.9698127983946521E-2</v>
+      </c>
+      <c r="I1">
+        <f>F1/51.6006</f>
+        <v>2.4246444651951958E-3</v>
+      </c>
+      <c r="J1">
+        <f>AVERAGE(I1:I3)</f>
+        <v>2.4297683589446818E-3</v>
+      </c>
+      <c r="K1">
+        <f>STDEV(I1:I3)</f>
+        <v>1.2945687393044683E-5</v>
+      </c>
+      <c r="M1" s="1">
+        <f>(0.03*51.6006)/(E1*E5)</f>
+        <v>12.372948046873688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>14.42</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C3" si="0">A2/29</f>
+        <f>A2/29</f>
         <v>0.49724137931034484</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D3" si="1">0.3/SQRT(29)</f>
+        <f>0.3/SQRT(29)</f>
         <v>5.5708601453115562E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <f>C2/(2*3.141592)</f>
+        <v>7.9138439891358395E-2</v>
+      </c>
+      <c r="F2">
+        <f>E2*E6</f>
+        <v>0.12488216667263259</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G3" si="0">SQRT((D2/C2)^2+(D6/C6)^2)/(2*3.1415)</f>
+        <v>1.8153734232561426E-2</v>
+      </c>
+      <c r="I2">
+        <f>F2/51.6006</f>
+        <v>2.4201688870407047E-3</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(0.03*51.6006)/(E2*E6)</f>
+        <v>12.395829134339015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>13.76</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C2:C3" si="1">A3/29</f>
+        <v>0.47448275862068967</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D2:D3" si="2">0.3/SQRT(29)</f>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E2:E65" si="3">C3/(2*3.141592)</f>
+        <v>7.5516292157079862E-2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F2:F3" si="4">E3*E7</f>
+        <v>0.12613723968429907</v>
+      </c>
+      <c r="G3">
         <f t="shared" si="0"/>
-        <v>0.47448275862068967</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="1"/>
-        <v>5.5708601453115562E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>1.8961686878257361E-2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I2:I65" si="5">F3/51.6006</f>
+        <v>2.4444917245981458E-3</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M2:M65" si="6">(0.03*51.6006)/(E3*E7)</f>
+        <v>12.272489899687328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>21.67</v>
       </c>
@@ -441,34 +590,98 @@
         <f>0.3/SQRT(2)</f>
         <v>0.21213203435596423</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>1.7244441671611082</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>19.829999999999998</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C7" si="2">A6/2</f>
+        <f t="shared" ref="C6:C7" si="7">A6/2</f>
         <v>9.9149999999999991</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D7" si="3">0.3/SQRT(2)</f>
+        <f t="shared" ref="D6:D7" si="8">0.3/SQRT(2)</f>
         <v>0.21213203435596423</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>1.5780215890542117</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="6"/>
+        <v>10.952687262081408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>20.99</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>10.494999999999999</v>
       </c>
       <c r="D7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.21213203435596423</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>1.6703314752520375</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="6"/>
+        <v>8.473129002493609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>16.32</v>
       </c>
@@ -476,26 +689,120 @@
         <f>A10/29</f>
         <v>0.56275862068965521</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10">
+        <f>0.3/SQRT(29)</f>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>8.9565834883978443E-2</v>
+      </c>
+      <c r="F10">
+        <f>E10*E14</f>
+        <v>0.24618123047905449</v>
+      </c>
+      <c r="G10">
+        <f>SQRT((D10/C10)^2+(D14/C14)^2)/(2*3.1415)</f>
+        <v>1.5996274716650976E-2</v>
+      </c>
+      <c r="I10">
+        <f>F10/51.6006</f>
+        <v>4.770898603486287E-3</v>
+      </c>
+      <c r="J10">
+        <f>AVERAGE(I10:I12)</f>
+        <v>4.2107708567097378E-3</v>
+      </c>
+      <c r="K10">
+        <f>STDEV(I10:I12)</f>
+        <v>4.8646812340730802E-4</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="6"/>
+        <v>6.2881235786645719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>19.93</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C12" si="4">A11/29</f>
+        <f t="shared" ref="C11:C12" si="9">A11/29</f>
         <v>0.68724137931034479</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11">
+        <f t="shared" ref="D11:D12" si="10">0.3/SQRT(29)</f>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>0.1093778853699565</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F12" si="11">E11*E15</f>
+        <v>0.20471848858010339</v>
+      </c>
+      <c r="G11">
+        <f>SQRT((D11/C11)^2+(D15/C15)^2)/(2*3.1415)</f>
+        <v>1.3525466524965899E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="5"/>
+        <v>3.9673664372139742E-3</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="6"/>
+        <v>7.561691231392043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>14.69</v>
       </c>
       <c r="C12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.50655172413793104</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D12">
+        <f t="shared" si="10"/>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>8.0620227600835981E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="11"/>
+        <v>0.20093518894705156</v>
+      </c>
+      <c r="G12">
+        <f>SQRT((D12/C12)^2+(D16/C16)^2)/(2*3.1415)</f>
+        <v>1.7767337949094898E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>3.8940475294289515E-3</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="6"/>
+        <v>7.7040662121551948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>17.27</v>
       </c>
@@ -503,26 +810,102 @@
         <f>A14</f>
         <v>17.27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14">
+        <f>0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>2.7486064390283649</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>11.76</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C16" si="5">A15</f>
+        <f t="shared" ref="C15:C16" si="12">A15</f>
         <v>11.76</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15">
+        <f t="shared" ref="D15:D16" si="13">0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>1.8716625201490198</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="6"/>
+        <v>10.749251515095821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>15.66</v>
       </c>
       <c r="C16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>15.66</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D16">
+        <f t="shared" si="13"/>
+        <v>0.3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>2.4923669273412967</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="6"/>
+        <v>8.1595337171275997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>14.02</v>
       </c>
@@ -530,26 +913,120 @@
         <f>A19/29</f>
         <v>0.48344827586206895</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <f>0.3/SQRT(29)</f>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>7.6943198840280488E-2</v>
+      </c>
+      <c r="F19">
+        <f>E19*E23</f>
+        <v>0.4410970651546896</v>
+      </c>
+      <c r="G19">
+        <f>SQRT((D19/C19)^2+(D23/C23)^2)/(2*3.1415)</f>
+        <v>1.8388090144475733E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>8.5482933367962699E-3</v>
+      </c>
+      <c r="J19">
+        <f>-AVERAGE(I19:I21)</f>
+        <v>-8.8652858081491297E-3</v>
+      </c>
+      <c r="K19">
+        <f>STDEV(I19:I21)</f>
+        <v>2.7524426499862429E-4</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="6"/>
+        <v>3.5094724546787019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>13.87</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:C21" si="6">A20/29</f>
+        <f t="shared" ref="C20:C21" si="14">A20/29</f>
         <v>0.4782758620689655</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <f t="shared" ref="D20:D21" si="15">0.3/SQRT(29)</f>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>7.6119983446126277E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:F21" si="16">E20*E24</f>
+        <v>0.46460542380406855</v>
+      </c>
+      <c r="G20">
+        <f>SQRT((D20/C20)^2+(D24/C24)^2)/(2*3.1415)</f>
+        <v>1.8580353488309307E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="5"/>
+        <v>9.0038763852371591E-3</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="6"/>
+        <v>3.3318982531999533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>13.33</v>
       </c>
       <c r="C21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.45965517241379311</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D21">
+        <f t="shared" si="15"/>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>7.3156408027171105E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="16"/>
+        <v>0.46665971165718168</v>
+      </c>
+      <c r="G21">
+        <f>SQRT((D21/C21)^2+(D25/C25)^2)/(2*3.1415)</f>
+        <v>1.9326344577623118E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="5"/>
+        <v>9.0436877024139585E-3</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="6"/>
+        <v>3.3172308672260256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>36.020000000000003</v>
       </c>
@@ -557,26 +1034,102 @@
         <f>A23</f>
         <v>36.020000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <f>0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>5.7327622428373894</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>38.35</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:C25" si="7">A24</f>
+        <f t="shared" ref="C24:C25" si="17">A24</f>
         <v>38.35</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <f t="shared" ref="D24:D25" si="18">0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>6.1035933373907243</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="6"/>
+        <v>3.1783651149851</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>40.08</v>
       </c>
       <c r="C25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>40.08</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D25">
+        <f t="shared" si="18"/>
+        <v>0.3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>6.3789314462221691</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="6"/>
+        <v>2.607233930431776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>14.54</v>
       </c>
@@ -584,26 +1137,120 @@
         <f>A28/29</f>
         <v>0.50137931034482752</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <f>0.3/SQRT(29)</f>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>7.9797012206681756E-2</v>
+      </c>
+      <c r="F28">
+        <f>E28*E32</f>
+        <v>0.29286411180797522</v>
+      </c>
+      <c r="G28">
+        <f>SQRT((D28/C28)^2+(D32/C32)^2)/(2*3.1415)</f>
+        <v>1.7805143658746633E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>5.6755950862582066E-3</v>
+      </c>
+      <c r="J28">
+        <f>-AVERAGE(I28:I30)</f>
+        <v>-5.2941530481453421E-3</v>
+      </c>
+      <c r="K28">
+        <f>STDEV(I28:I30)</f>
+        <v>4.4592715746211311E-4</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="6"/>
+        <v>5.2857893391014139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>16.96</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:C30" si="8">A29/29</f>
+        <f t="shared" ref="C29:C30" si="19">A29/29</f>
         <v>0.58482758620689657</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <f t="shared" ref="D29:D30" si="20">0.3/SQRT(29)</f>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>9.3078220565703085E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F30" si="21">E29*E33</f>
+        <v>0.27879688244790096</v>
+      </c>
+      <c r="G29">
+        <f>SQRT((D29/C29)^2+(D33/C33)^2)/(2*3.1415)</f>
+        <v>1.5371798109814179E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="5"/>
+        <v>5.402977532197319E-3</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="6"/>
+        <v>5.5524939389854167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>15.16</v>
       </c>
       <c r="C30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>0.52275862068965517</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D30">
+        <f t="shared" si="20"/>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>8.319963583585252E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="21"/>
+        <v>0.2478834270725096</v>
+      </c>
+      <c r="G30">
+        <f>SQRT((D30/C30)^2+(D34/C34)^2)/(2*3.1415)</f>
+        <v>1.7151811099522969E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="5"/>
+        <v>4.8038865259805042E-3</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="6"/>
+        <v>6.2449435134975015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>23.06</v>
       </c>
@@ -611,26 +1258,102 @@
         <f>A32</f>
         <v>23.06</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <f>0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>3.6701137512445916</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>18.82</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:C34" si="9">A33</f>
+        <f t="shared" ref="C33:C34" si="22">A33</f>
         <v>18.82</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <f t="shared" ref="D33:D34" si="23">0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>2.9952966521432445</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="6"/>
+        <v>6.8989228721752891</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>18.72</v>
       </c>
       <c r="C34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>18.72</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D34">
+        <f t="shared" si="23"/>
+        <v>0.3</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>2.9793811545229296</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="6"/>
+        <v>7.6165200051988853</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>13.65</v>
       </c>
@@ -638,17 +1361,73 @@
         <f>A37/29</f>
         <v>0.47068965517241379</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <f>0.3/SQRT(29)</f>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>7.4912600868033433E-2</v>
+      </c>
+      <c r="F37">
+        <f>E37*E41</f>
+        <v>0.15743942791781707</v>
+      </c>
+      <c r="G37">
+        <f>SQRT((D37/C37)^2+(D41/C41)^2)/(2*3.1415)</f>
+        <v>1.901011058841463E-2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="5"/>
+        <v>3.0511162257380159E-3</v>
+      </c>
+      <c r="J37">
+        <f>-AVERAGE(I37:I39)</f>
+        <v>-3.0061943396351653E-3</v>
+      </c>
+      <c r="K37">
+        <f>STDEV(I37:I39)</f>
+        <v>7.0742844637650357E-5</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="6"/>
+        <v>9.8324671302036286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>12.43</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:C39" si="10">A38/29</f>
+        <f t="shared" ref="C38" si="24">A38/29</f>
         <v>0.42862068965517242</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <f t="shared" ref="D38" si="25">0.3/SQRT(29)</f>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>6.8217115662245822E-2</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38:F39" si="26">E38*E42</f>
+        <v>0.15091359853622255</v>
+      </c>
+      <c r="G38">
+        <f>SQRT((D38/C38)^2+(D42/C42)^2)/(2*3.1415)</f>
+        <v>2.0828381582262249E-2</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="5"/>
+        <v>2.9246481346384065E-3</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="6"/>
+        <v>10.257644208440514</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>16.29</v>
       </c>
@@ -656,8 +1435,46 @@
         <f>A39/39</f>
         <v>0.4176923076923077</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D39">
+        <f>0.3/SQRT(39)</f>
+        <v>4.8038446141526137E-2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>6.6477809291007189E-2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="26"/>
+        <v>0.15701126847129523</v>
+      </c>
+      <c r="G39">
+        <f>SQRT((D39/C39)^2+(D43/C43)^2)/(2*3.1415)</f>
+        <v>1.844566494073278E-2</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="5"/>
+        <v>3.0428186585290721E-3</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="6"/>
+        <v>9.8592796241437171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>26.41</v>
       </c>
@@ -665,26 +1482,102 @@
         <f>A41/2</f>
         <v>13.205</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <f>0.3/SQRT(2)</f>
+        <v>0.21213203435596423</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>2.1016414607625689</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>27.8</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:C43" si="11">A42/2</f>
+        <f t="shared" ref="C42:C43" si="27">A42/2</f>
         <v>13.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <f t="shared" ref="D42" si="28">0.3/SQRT(2)</f>
+        <v>0.21213203435596423</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>2.2122541692237565</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="6"/>
+        <v>9.9923603064980853</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>29.68</v>
       </c>
       <c r="C43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>14.84</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D43">
+        <f>0.3/SQRT(2)</f>
+        <v>0.21213203435596423</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>2.3618598468547156</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="6"/>
+        <v>8.3050217311111112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>12.76</v>
       </c>
@@ -692,17 +1585,73 @@
         <f>A46/29</f>
         <v>0.44</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <f>0.3/SQRT(29)</f>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>7.0028189529385096E-2</v>
+      </c>
+      <c r="F46">
+        <f>E46*E50</f>
+        <v>0.10799829458117756</v>
+      </c>
+      <c r="G46">
+        <f>SQRT((D46/C46)^2+(D50/C50)^2)/(2*3.1415)</f>
+        <v>2.0450286178089219E-2</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="5"/>
+        <v>2.0929658682491592E-3</v>
+      </c>
+      <c r="J46">
+        <f>-AVERAGE(I46:I48)</f>
+        <v>-2.0835989022165292E-3</v>
+      </c>
+      <c r="K46">
+        <f>STDEV(I46:I48)</f>
+        <v>8.1135101080943672E-6</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="6"/>
+        <v>14.333726342654634</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>14.38</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:C48" si="12">A47/29</f>
+        <f t="shared" ref="C47" si="29">A47/29</f>
         <v>0.49586206896551727</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <f t="shared" ref="D47" si="30">0.3/SQRT(29)</f>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>7.8918915786250612E-2</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ref="F47:F48" si="31">E47*E51</f>
+        <v>0.10726528792003864</v>
+      </c>
+      <c r="G47">
+        <f>SQRT((D47/C47)^2+(D51/C51)^2)/(2*3.1415)</f>
+        <v>1.8312945728848611E-2</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="5"/>
+        <v>2.0787604779796873E-3</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="6"/>
+        <v>14.431677106520951</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>14.74</v>
       </c>
@@ -710,8 +1659,46 @@
         <f>A48/30</f>
         <v>0.49133333333333334</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D48">
+        <f>0.3/SQRT(30)</f>
+        <v>5.4772255750516606E-2</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>7.8198144974480022E-2</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="31"/>
+        <v>0.10728127803992653</v>
+      </c>
+      <c r="G48">
+        <f>SQRT((D48/C48)^2+(D52/C52)^2)/(2*3.1415)</f>
+        <v>1.8169791597738183E-2</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="5"/>
+        <v>2.0790703604207416E-3</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="6"/>
+        <v>14.429526085845836</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>19.38</v>
       </c>
@@ -719,26 +1706,102 @@
         <f>A50/2</f>
         <v>9.69</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <f>0.3/SQRT(2)</f>
+        <v>0.21213203435596423</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>1.5422117194085037</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>17.079999999999998</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:C52" si="13">A51/2</f>
+        <f t="shared" ref="C51:C52" si="32">A51/2</f>
         <v>8.5399999999999991</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <f t="shared" ref="D51:D52" si="33">0.3/SQRT(2)</f>
+        <v>0.21213203435596423</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>1.3591834967748833</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="6"/>
+        <v>16.457376430751093</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>17.239999999999998</v>
       </c>
       <c r="C52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>8.6199999999999992</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D52">
+        <f t="shared" si="33"/>
+        <v>0.21213203435596423</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>1.3719158948711352</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="6"/>
+        <v>14.063030598850119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>12.61</v>
       </c>
@@ -746,26 +1809,120 @@
         <f>A55/29</f>
         <v>0.43482758620689654</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <f>0.3/SQRT(29)</f>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>6.9204974135230884E-2</v>
+      </c>
+      <c r="F55">
+        <f>E55*E59</f>
+        <v>9.1859395537012042E-2</v>
+      </c>
+      <c r="G55">
+        <f>SQRT((D55/C55)^2+(D59/C59)^2)/(2*3.1415)</f>
+        <v>2.1179462149645386E-2</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="5"/>
+        <v>1.7802001437388722E-3</v>
+      </c>
+      <c r="J55">
+        <f>-AVERAGE(I55:I57)</f>
+        <v>-1.7034720777075777E-3</v>
+      </c>
+      <c r="K55">
+        <f>STDEV(I55:I57)</f>
+        <v>7.591386053598526E-5</v>
+      </c>
+      <c r="M55" s="1">
+        <f t="shared" si="6"/>
+        <v>16.852037736044885</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>14.62</v>
       </c>
       <c r="C56">
-        <f t="shared" ref="C56:C57" si="14">A56/29</f>
+        <f t="shared" ref="C56:C57" si="34">A56/29</f>
         <v>0.50413793103448268</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <f t="shared" ref="D56:D57" si="35">0.3/SQRT(29)</f>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>8.0236060416897334E-2</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ref="F56:F57" si="36">E56*E60</f>
+        <v>8.4026391323759497E-2</v>
+      </c>
+      <c r="G56">
+        <f>SQRT((D56/C56)^2+(D60/C60)^2)/(2*3.1415)</f>
+        <v>1.9025762870393675E-2</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="5"/>
+        <v>1.628399501629041E-3</v>
+      </c>
+      <c r="M56" s="1">
+        <f t="shared" si="6"/>
+        <v>18.42299753223222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>13.81</v>
       </c>
       <c r="C57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>0.47620689655172416</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D57">
+        <f t="shared" si="35"/>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>7.579069728846459E-2</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="36"/>
+        <v>8.7814757018101361E-2</v>
+      </c>
+      <c r="G57">
+        <f>SQRT((D57/C57)^2+(D61/C61)^2)/(2*3.1415)</f>
+        <v>1.9740561220722864E-2</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="5"/>
+        <v>1.70181658775482E-3</v>
+      </c>
+      <c r="M57" s="1">
+        <f t="shared" si="6"/>
+        <v>17.628221640252391</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>8.34</v>
       </c>
@@ -773,26 +1930,102 @@
         <f>A59</f>
         <v>8.34</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <f>0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>1.3273525015342538</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>6.58</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:C61" si="15">A60</f>
+        <f t="shared" ref="C60:C61" si="37">A60</f>
         <v>6.58</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <f t="shared" ref="D60:D61" si="38">0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>1.0472397434167136</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <f t="shared" si="6"/>
+        <v>19.761131615644533</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>7.28</v>
       </c>
       <c r="C61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="37"/>
         <v>7.28</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D61">
+        <f t="shared" si="38"/>
+        <v>0.3</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="3"/>
+        <v>1.1586482267589171</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="1">
+        <f t="shared" si="6"/>
+        <v>16.743173373582223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="E62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>13.63</v>
       </c>
@@ -800,26 +2033,116 @@
         <f>A64/29</f>
         <v>0.47000000000000003</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <f>0.3/SQRT(29)</f>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>7.4802838815479542E-2</v>
+      </c>
+      <c r="F64">
+        <f>E64*E68</f>
+        <v>7.4050617876586566E-2</v>
+      </c>
+      <c r="G64">
+        <f>SQRT((D64/C64)^2+(D68/C68)^2)/(2*3.1415)</f>
+        <v>2.0367078692286988E-2</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="5"/>
+        <v>1.435072806839195E-3</v>
+      </c>
+      <c r="J64">
+        <f>-AVERAGE(I64:I66)</f>
+        <v>-1.4240158943939864E-3</v>
+      </c>
+      <c r="K64">
+        <f>STDEV(I64:I66)</f>
+        <v>6.6328742558017712E-5</v>
+      </c>
+      <c r="M64" s="1">
+        <f t="shared" si="6"/>
+        <v>20.904862705939074</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>14.54</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:C66" si="16">A65/29</f>
+        <f t="shared" ref="C65:C66" si="39">A65/29</f>
         <v>0.50137931034482752</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <f t="shared" ref="D65:D66" si="40">0.3/SQRT(29)</f>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>7.9797012206681756E-2</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ref="F65:F66" si="41">E65*E69</f>
+        <v>7.6581552220385554E-2</v>
+      </c>
+      <c r="G65">
+        <f>SQRT((D65/C65)^2+(D69/C69)^2)/(2*3.1415)</f>
+        <v>1.9376188507333202E-2</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="5"/>
+        <v>1.4841213516971808E-3</v>
+      </c>
+      <c r="M65" s="1">
+        <f t="shared" si="6"/>
+        <v>20.213980457658138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>15.34</v>
       </c>
       <c r="C66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="39"/>
         <v>0.5289655172413793</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D66">
+        <f t="shared" si="40"/>
+        <v>5.5708601453115562E-2</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66:E70" si="42">C66/(2*3.141592)</f>
+        <v>8.4187494308837568E-2</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="41"/>
+        <v>6.9808053583826885E-2</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ref="G66" si="43">SQRT((D66/C66)^2+(D70/C70)^2)/(2*3.1415)</f>
+        <v>1.9103880921041438E-2</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ref="I66" si="44">F66/51.6006</f>
+        <v>1.3528535246455833E-3</v>
+      </c>
+      <c r="M66" s="1">
+        <f t="shared" ref="M66" si="45">(0.03*51.6006)/(E66*E70)</f>
+        <v>22.175349698600456</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="E67">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="1" t="e">
+        <f t="shared" ref="M66:M71" si="46">(0.03*51.6006)/(C67*C71)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>6.22</v>
       </c>
@@ -827,27 +2150,70 @@
         <f>A68</f>
         <v>6.22</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68">
+        <f>0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="42"/>
+        <v>0.98994395198358021</v>
+      </c>
+      <c r="M68" s="1" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>6.03</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:C70" si="17">A69</f>
+        <f t="shared" ref="C69:C70" si="47">A69</f>
         <v>6.03</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69">
+        <f t="shared" ref="D69:D70" si="48">0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="42"/>
+        <v>0.95970450650498218</v>
+      </c>
+      <c r="M69" s="1" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>5.21</v>
       </c>
       <c r="C70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="47"/>
         <v>5.21</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="48"/>
+        <v>0.3</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="42"/>
+        <v>0.82919742601840085</v>
+      </c>
+      <c r="M70" s="1" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="M71" s="1" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Protokoll 7/Versuch 22 Berechnungen.xlsx
+++ b/Protokoll 7/Versuch 22 Berechnungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="2280" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="400" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,8 +62,116 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -93,7 +201,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="131">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -105,6 +213,60 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -116,6 +278,60 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -457,7 +673,7 @@
     <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1">
         <v>13.22</v>
       </c>
@@ -470,12 +686,12 @@
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E1">
-        <f>C1/(2*3.141592)</f>
-        <v>7.255271673812469E-2</v>
+        <f>(2*3.141592)/C1</f>
+        <v>13.783081391830558</v>
       </c>
       <c r="F1">
         <f>E1*E5</f>
-        <v>0.12511310919075122</v>
+        <v>7.9927675562388085</v>
       </c>
       <c r="G1">
         <f>SQRT((D1/C1)^2+(D5/C5)^2)/(2*3.1415)</f>
@@ -483,22 +699,26 @@
       </c>
       <c r="I1">
         <f>F1/51.6006</f>
-        <v>2.4246444651951958E-3</v>
+        <v>0.15489679492561731</v>
       </c>
       <c r="J1">
         <f>AVERAGE(I1:I3)</f>
-        <v>2.4297683589446818E-3</v>
+        <v>0.15457306615149335</v>
       </c>
       <c r="K1">
         <f>STDEV(I1:I3)</f>
-        <v>1.2945687393044683E-5</v>
+        <v>8.2136953018249195E-4</v>
       </c>
       <c r="M1" s="1">
         <f>(0.03*51.6006)/(E1*E5)</f>
-        <v>12.372948046873688</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>0.19367734506324835</v>
+      </c>
+      <c r="O1">
+        <f>(5.26*9.81)/(E1*E5)</f>
+        <v>6.455911502108278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>14.42</v>
       </c>
@@ -511,63 +731,71 @@
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E2">
-        <f>C2/(2*3.141592)</f>
-        <v>7.9138439891358395E-2</v>
+        <f t="shared" ref="E2:E65" si="0">(2*3.141592)/C2</f>
+        <v>12.636084327323163</v>
       </c>
       <c r="F2">
         <f>E2*E6</f>
-        <v>0.12488216667263259</v>
+        <v>8.0075484486220532</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G3" si="0">SQRT((D2/C2)^2+(D6/C6)^2)/(2*3.1415)</f>
+        <f t="shared" ref="G2:G3" si="1">SQRT((D2/C2)^2+(D6/C6)^2)/(2*3.1415)</f>
         <v>1.8153734232561426E-2</v>
       </c>
       <c r="I2">
         <f>F2/51.6006</f>
-        <v>2.4201688870407047E-3</v>
+        <v>0.15518324299760183</v>
       </c>
       <c r="M2" s="1">
         <f>(0.03*51.6006)/(E2*E6)</f>
-        <v>12.395829134339015</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.19331984188823539</v>
+      </c>
+      <c r="O2">
+        <f>(5.26*9.81)/(E2*E6)</f>
+        <v>6.443994729607847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>13.76</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C2:C3" si="1">A3/29</f>
+        <f t="shared" ref="C2:C3" si="2">A3/29</f>
         <v>0.47448275862068967</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D2:D3" si="2">0.3/SQRT(29)</f>
+        <f t="shared" ref="D2:D3" si="3">0.3/SQRT(29)</f>
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E2:E65" si="3">C3/(2*3.141592)</f>
-        <v>7.5516292157079862E-2</v>
+        <f t="shared" si="0"/>
+        <v>13.242175581395349</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F2:F3" si="4">E3*E7</f>
-        <v>0.12613723968429907</v>
+        <v>7.9278728669093823</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8961686878257361E-2</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I2:I65" si="5">F3/51.6006</f>
-        <v>2.4444917245981458E-3</v>
+        <v>0.15363916053126092</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M2:M65" si="6">(0.03*51.6006)/(E3*E7)</f>
-        <v>12.272489899687328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="E4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.19526271750160926</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="7">(5.26*9.81)/(E3*E7)</f>
+        <v>6.5087572500536428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="E4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I4">
         <f t="shared" si="5"/>
@@ -577,8 +805,12 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>21.67</v>
       </c>
@@ -591,8 +823,8 @@
         <v>0.21213203435596423</v>
       </c>
       <c r="E5">
-        <f t="shared" si="3"/>
-        <v>1.7244441671611082</v>
+        <f t="shared" si="0"/>
+        <v>0.57989700046146742</v>
       </c>
       <c r="I5">
         <f t="shared" si="5"/>
@@ -602,22 +834,26 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>19.829999999999998</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C7" si="7">A6/2</f>
+        <f t="shared" ref="C6:C7" si="8">A6/2</f>
         <v>9.9149999999999991</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D7" si="8">0.3/SQRT(2)</f>
+        <f t="shared" ref="D6:D7" si="9">0.3/SQRT(2)</f>
         <v>0.21213203435596423</v>
       </c>
       <c r="E6">
-        <f t="shared" si="3"/>
-        <v>1.5780215890542117</v>
+        <f t="shared" si="0"/>
+        <v>0.63370489157841658</v>
       </c>
       <c r="I6">
         <f t="shared" si="5"/>
@@ -625,24 +861,28 @@
       </c>
       <c r="M6" s="1">
         <f t="shared" si="6"/>
-        <v>10.952687262081408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.21879194310790581</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>7.293064770263527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>20.99</v>
       </c>
       <c r="C7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.494999999999999</v>
       </c>
       <c r="D7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.21213203435596423</v>
       </c>
       <c r="E7">
-        <f t="shared" si="3"/>
-        <v>1.6703314752520375</v>
+        <f t="shared" si="0"/>
+        <v>0.59868356360171515</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
@@ -650,13 +890,17 @@
       </c>
       <c r="M7" s="1">
         <f t="shared" si="6"/>
-        <v>8.473129002493609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="E8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.2828187470790024</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>9.4272915693000794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="E8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
@@ -666,11 +910,15 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="E9">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="O8" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="E9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
@@ -680,8 +928,12 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>16.32</v>
       </c>
@@ -694,12 +946,12 @@
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
-        <v>8.9565834883978443E-2</v>
+        <f t="shared" si="0"/>
+        <v>11.16497156862745</v>
       </c>
       <c r="F10">
         <f>E10*E14</f>
-        <v>0.24618123047905449</v>
+        <v>4.0620481019371688</v>
       </c>
       <c r="G10">
         <f>SQRT((D10/C10)^2+(D14/C14)^2)/(2*3.1415)</f>
@@ -707,40 +959,44 @@
       </c>
       <c r="I10">
         <f>F10/51.6006</f>
-        <v>4.770898603486287E-3</v>
+        <v>7.8720947080793024E-2</v>
       </c>
       <c r="J10">
         <f>AVERAGE(I10:I12)</f>
-        <v>4.2107708567097378E-3</v>
+        <v>8.9944263240003916E-2</v>
       </c>
       <c r="K10">
         <f>STDEV(I10:I12)</f>
-        <v>4.8646812340730802E-4</v>
+        <v>9.7604481663057623E-3</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="6"/>
-        <v>6.2881235786645719</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.38109297604372494</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>12.703099201457499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>19.93</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C12" si="9">A11/29</f>
+        <f t="shared" ref="C11:C12" si="10">A11/29</f>
         <v>0.68724137931034479</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D12" si="10">0.3/SQRT(29)</f>
+        <f t="shared" ref="D11:D12" si="11">0.3/SQRT(29)</f>
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
-        <v>0.1093778853699565</v>
+        <f t="shared" si="0"/>
+        <v>9.1426159558454607</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F12" si="11">E11*E15</f>
-        <v>0.20471848858010339</v>
+        <f t="shared" ref="F11:F12" si="12">E11*E15</f>
+        <v>4.8847566574755872</v>
       </c>
       <c r="G11">
         <f>SQRT((D11/C11)^2+(D15/C15)^2)/(2*3.1415)</f>
@@ -748,32 +1004,36 @@
       </c>
       <c r="I11">
         <f t="shared" si="5"/>
-        <v>3.9673664372139742E-3</v>
+        <v>9.4664725942636072E-2</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="6"/>
-        <v>7.561691231392043</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.31690790525479445</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>10.563596841826483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>14.69</v>
       </c>
       <c r="C12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.50655172413793104</v>
       </c>
       <c r="D12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
-        <v>8.0620227600835981E-2</v>
+        <f t="shared" si="0"/>
+        <v>12.403834989788972</v>
       </c>
       <c r="F12">
-        <f t="shared" si="11"/>
-        <v>0.20093518894705156</v>
+        <f t="shared" si="12"/>
+        <v>4.9767290898136807</v>
       </c>
       <c r="G12">
         <f>SQRT((D12/C12)^2+(D16/C16)^2)/(2*3.1415)</f>
@@ -781,17 +1041,21 @@
       </c>
       <c r="I12">
         <f t="shared" si="5"/>
-        <v>3.8940475294289515E-3</v>
+        <v>9.644711669658261E-2</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="6"/>
-        <v>7.7040662121551948</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.3110512893234369</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>10.36837631078123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="E13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I13">
         <f t="shared" si="5"/>
@@ -801,8 +1065,12 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>17.27</v>
       </c>
@@ -815,8 +1083,8 @@
         <v>0.3</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
-        <v>2.7486064390283649</v>
+        <f t="shared" si="0"/>
+        <v>0.36382072958888251</v>
       </c>
       <c r="I14">
         <f t="shared" si="5"/>
@@ -826,22 +1094,26 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>11.76</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C16" si="12">A15</f>
+        <f t="shared" ref="C15:C16" si="13">A15</f>
         <v>11.76</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D16" si="13">0.3</f>
+        <f t="shared" ref="D15:D16" si="14">0.3</f>
         <v>0.3</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
-        <v>1.8716625201490198</v>
+        <f t="shared" si="0"/>
+        <v>0.53428435374149663</v>
       </c>
       <c r="I15">
         <f t="shared" si="5"/>
@@ -849,24 +1121,28 @@
       </c>
       <c r="M15" s="1">
         <f t="shared" si="6"/>
-        <v>10.749251515095821</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.22293270605480273</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>7.4310902018267582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>15.66</v>
       </c>
       <c r="C16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15.66</v>
       </c>
       <c r="D16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
-        <v>2.4923669273412967</v>
+        <f t="shared" si="0"/>
+        <v>0.40122503192848025</v>
       </c>
       <c r="I16">
         <f t="shared" si="5"/>
@@ -874,13 +1150,17 @@
       </c>
       <c r="M16" s="1">
         <f t="shared" si="6"/>
-        <v>8.1595337171275997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="E17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.29368831742110751</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>9.7896105807035845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="E17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I17">
         <f t="shared" si="5"/>
@@ -890,11 +1170,15 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="E18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="O17" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="E18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I18">
         <f t="shared" si="5"/>
@@ -904,8 +1188,12 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="O18" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>14.02</v>
       </c>
@@ -918,12 +1206,12 @@
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
-        <v>7.6943198840280488E-2</v>
+        <f t="shared" si="0"/>
+        <v>12.996600285306705</v>
       </c>
       <c r="F19">
         <f>E19*E23</f>
-        <v>0.4410970651546896</v>
+        <v>2.2670747075800812</v>
       </c>
       <c r="G19">
         <f>SQRT((D19/C19)^2+(D23/C23)^2)/(2*3.1415)</f>
@@ -931,40 +1219,44 @@
       </c>
       <c r="I19">
         <f t="shared" si="5"/>
-        <v>8.5482933367962699E-3</v>
+        <v>4.3935045475829375E-2</v>
       </c>
       <c r="J19">
         <f>-AVERAGE(I19:I21)</f>
-        <v>-8.8652858081491297E-3</v>
+        <v>-4.239180560011141E-2</v>
       </c>
       <c r="K19">
         <f>STDEV(I19:I21)</f>
-        <v>2.7524426499862429E-4</v>
+        <v>1.3396347033633397E-3</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="6"/>
-        <v>3.5094724546787019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.68282619660663224</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>22.760873220221075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>13.87</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:C21" si="14">A20/29</f>
+        <f t="shared" ref="C20:C21" si="15">A20/29</f>
         <v>0.4782758620689655</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:D21" si="15">0.3/SQRT(29)</f>
+        <f t="shared" ref="D20:D21" si="16">0.3/SQRT(29)</f>
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
-        <v>7.6119983446126277E-2</v>
+        <f t="shared" si="0"/>
+        <v>13.137154722422496</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:F21" si="16">E20*E24</f>
-        <v>0.46460542380406855</v>
+        <f t="shared" ref="F20:F21" si="17">E20*E24</f>
+        <v>2.1523640249660878</v>
       </c>
       <c r="G20">
         <f>SQRT((D20/C20)^2+(D24/C24)^2)/(2*3.1415)</f>
@@ -972,32 +1264,36 @@
       </c>
       <c r="I20">
         <f t="shared" si="5"/>
-        <v>9.0038763852371591E-3</v>
+        <v>4.1711996080783707E-2</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="6"/>
-        <v>3.3318982531999533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.71921755894632655</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>23.973918631544219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>13.33</v>
       </c>
       <c r="C21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.45965517241379311</v>
       </c>
       <c r="D21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
-        <v>7.3156408027171105E-2</v>
+        <f t="shared" si="0"/>
+        <v>13.669342535633909</v>
       </c>
       <c r="F21">
-        <f t="shared" si="16"/>
-        <v>0.46665971165718168</v>
+        <f t="shared" si="17"/>
+        <v>2.1428890796011579</v>
       </c>
       <c r="G21">
         <f>SQRT((D21/C21)^2+(D25/C25)^2)/(2*3.1415)</f>
@@ -1005,17 +1301,21 @@
       </c>
       <c r="I21">
         <f t="shared" si="5"/>
-        <v>9.0436877024139585E-3</v>
+        <v>4.1528375243721154E-2</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="6"/>
-        <v>3.3172308672260256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="E22">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.7223976335201272</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>24.079921117337573</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="E22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I22">
         <f t="shared" si="5"/>
@@ -1025,8 +1325,12 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="O22" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>36.020000000000003</v>
       </c>
@@ -1039,8 +1343,8 @@
         <v>0.3</v>
       </c>
       <c r="E23">
-        <f t="shared" si="3"/>
-        <v>5.7327622428373894</v>
+        <f t="shared" si="0"/>
+        <v>0.17443598001110494</v>
       </c>
       <c r="I23">
         <f t="shared" si="5"/>
@@ -1050,22 +1354,26 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="O23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>38.35</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:C25" si="17">A24</f>
+        <f t="shared" ref="C24:C25" si="18">A24</f>
         <v>38.35</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:D25" si="18">0.3</f>
+        <f t="shared" ref="D24:D25" si="19">0.3</f>
         <v>0.3</v>
       </c>
       <c r="E24">
-        <f t="shared" si="3"/>
-        <v>6.1035933373907243</v>
+        <f t="shared" si="0"/>
+        <v>0.16383791395045633</v>
       </c>
       <c r="I24">
         <f t="shared" si="5"/>
@@ -1073,24 +1381,28 @@
       </c>
       <c r="M24" s="1">
         <f t="shared" si="6"/>
-        <v>3.1783651149851</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.75395986352412314</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>25.131995450804105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>40.08</v>
       </c>
       <c r="C25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>40.08</v>
       </c>
       <c r="D25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="E25">
-        <f t="shared" si="3"/>
-        <v>6.3789314462221691</v>
+        <f t="shared" si="0"/>
+        <v>0.15676606786427147</v>
       </c>
       <c r="I25">
         <f t="shared" si="5"/>
@@ -1098,13 +1410,17 @@
       </c>
       <c r="M25" s="1">
         <f t="shared" si="6"/>
-        <v>2.607233930431776</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="E26">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.91911956973003428</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>30.637318991001145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="E26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I26">
         <f t="shared" si="5"/>
@@ -1114,11 +1430,15 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="E27">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="O26" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="E27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I27">
         <f t="shared" si="5"/>
@@ -1128,8 +1448,12 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="O27" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>14.54</v>
       </c>
@@ -1142,12 +1466,12 @@
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E28">
-        <f t="shared" si="3"/>
-        <v>7.9797012206681756E-2</v>
+        <f t="shared" si="0"/>
+        <v>12.531797524071528</v>
       </c>
       <c r="F28">
         <f>E28*E32</f>
-        <v>0.29286411180797522</v>
+        <v>3.4145528922153447</v>
       </c>
       <c r="G28">
         <f>SQRT((D28/C28)^2+(D32/C32)^2)/(2*3.1415)</f>
@@ -1155,40 +1479,44 @@
       </c>
       <c r="I28">
         <f t="shared" si="5"/>
-        <v>5.6755950862582066E-3</v>
+        <v>6.6172736212667005E-2</v>
       </c>
       <c r="J28">
         <f>-AVERAGE(I28:I30)</f>
-        <v>-5.2941530481453421E-3</v>
+        <v>-7.1288240198946459E-2</v>
       </c>
       <c r="K28">
         <f>STDEV(I28:I30)</f>
-        <v>4.4592715746211311E-4</v>
+        <v>6.1978360507209621E-3</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="6"/>
-        <v>5.2857893391014139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.45335891663275818</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="7"/>
+        <v>15.111963887758607</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>16.96</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:C30" si="19">A29/29</f>
+        <f t="shared" ref="C29:C30" si="20">A29/29</f>
         <v>0.58482758620689657</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:D30" si="20">0.3/SQRT(29)</f>
+        <f t="shared" ref="D29:D30" si="21">0.3/SQRT(29)</f>
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E29">
-        <f t="shared" si="3"/>
-        <v>9.3078220565703085E-2</v>
+        <f t="shared" si="0"/>
+        <v>10.743651886792453</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:F30" si="21">E29*E33</f>
-        <v>0.27879688244790096</v>
+        <f t="shared" ref="F29:F30" si="22">E29*E33</f>
+        <v>3.5868406820756724</v>
       </c>
       <c r="G29">
         <f>SQRT((D29/C29)^2+(D33/C33)^2)/(2*3.1415)</f>
@@ -1196,32 +1524,36 @@
       </c>
       <c r="I29">
         <f t="shared" si="5"/>
-        <v>5.402977532197319E-3</v>
+        <v>6.9511608044783832E-2</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="6"/>
-        <v>5.5524939389854167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.43158259237323465</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="7"/>
+        <v>14.386086412441156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>15.16</v>
       </c>
       <c r="C30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.52275862068965517</v>
       </c>
       <c r="D30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E30">
-        <f t="shared" si="3"/>
-        <v>8.319963583585252E-2</v>
+        <f t="shared" si="0"/>
+        <v>12.019283377308708</v>
       </c>
       <c r="F30">
-        <f t="shared" si="21"/>
-        <v>0.2478834270725096</v>
+        <f t="shared" si="22"/>
+        <v>4.0341543273382499</v>
       </c>
       <c r="G30">
         <f>SQRT((D30/C30)^2+(D34/C34)^2)/(2*3.1415)</f>
@@ -1229,17 +1561,21 @@
       </c>
       <c r="I30">
         <f t="shared" si="5"/>
-        <v>4.8038865259805042E-3</v>
+        <v>7.8180376339388499E-2</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="6"/>
-        <v>6.2449435134975015</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="E31">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.38372800700993209</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="7"/>
+        <v>12.790933566997738</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="E31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I31">
         <f t="shared" si="5"/>
@@ -1249,8 +1585,12 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="O31" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>23.06</v>
       </c>
@@ -1263,8 +1603,8 @@
         <v>0.3</v>
       </c>
       <c r="E32">
-        <f t="shared" si="3"/>
-        <v>3.6701137512445916</v>
+        <f t="shared" si="0"/>
+        <v>0.27247111882046837</v>
       </c>
       <c r="I32">
         <f t="shared" si="5"/>
@@ -1274,22 +1614,26 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="O32" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>18.82</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:C34" si="22">A33</f>
+        <f t="shared" ref="C33:C34" si="23">A33</f>
         <v>18.82</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:D34" si="23">0.3</f>
+        <f t="shared" ref="D33:D34" si="24">0.3</f>
         <v>0.3</v>
       </c>
       <c r="E33">
-        <f t="shared" si="3"/>
-        <v>2.9952966521432445</v>
+        <f t="shared" si="0"/>
+        <v>0.33385674814027633</v>
       </c>
       <c r="I33">
         <f t="shared" si="5"/>
@@ -1297,24 +1641,28 @@
       </c>
       <c r="M33" s="1">
         <f t="shared" si="6"/>
-        <v>6.8989228721752891</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.3473527350173734</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="7"/>
+        <v>11.578424500579114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>18.72</v>
       </c>
       <c r="C34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>18.72</v>
       </c>
       <c r="D34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.3</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
-        <v>2.9793811545229296</v>
+        <f t="shared" si="0"/>
+        <v>0.33564017094017096</v>
       </c>
       <c r="I34">
         <f t="shared" si="5"/>
@@ -1322,13 +1670,17 @@
       </c>
       <c r="M34" s="1">
         <f t="shared" si="6"/>
-        <v>7.6165200051988853</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="E35">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.31462659149956829</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="7"/>
+        <v>10.48755304998561</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="E35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I35">
         <f t="shared" si="5"/>
@@ -1338,11 +1690,15 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="E36">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="O35" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="E36" t="e">
+        <f>(2*3.141592)/C36</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="I36">
         <f t="shared" si="5"/>
@@ -1352,8 +1708,12 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="O36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>13.65</v>
       </c>
@@ -1366,12 +1726,12 @@
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E37">
-        <f t="shared" si="3"/>
-        <v>7.4912600868033433E-2</v>
+        <f t="shared" si="0"/>
+        <v>13.348889084249086</v>
       </c>
       <c r="F37">
         <f>E37*E41</f>
-        <v>0.15743942791781707</v>
+        <v>6.35164909594309</v>
       </c>
       <c r="G37">
         <f>SQRT((D37/C37)^2+(D41/C41)^2)/(2*3.1415)</f>
@@ -1379,40 +1739,44 @@
       </c>
       <c r="I37">
         <f t="shared" si="5"/>
-        <v>3.0511162257380159E-3</v>
+        <v>0.12309254341893486</v>
       </c>
       <c r="J37">
         <f>-AVERAGE(I37:I39)</f>
-        <v>-3.0061943396351653E-3</v>
+        <v>-0.12497869417850005</v>
       </c>
       <c r="K37">
         <f>STDEV(I37:I39)</f>
-        <v>7.0742844637650357E-5</v>
+        <v>2.9809426616947527E-3</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="6"/>
-        <v>9.8324671302036286</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0.2437190683264833</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="7"/>
+        <v>8.1239689442161112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>12.43</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38" si="24">A38/29</f>
+        <f t="shared" ref="C38" si="25">A38/29</f>
         <v>0.42862068965517242</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38" si="25">0.3/SQRT(29)</f>
+        <f t="shared" ref="D38" si="26">0.3/SQRT(29)</f>
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E38">
-        <f t="shared" si="3"/>
-        <v>6.8217115662245822E-2</v>
+        <f t="shared" si="0"/>
+        <v>14.65907771520515</v>
       </c>
       <c r="F38">
-        <f t="shared" ref="F38:F39" si="26">E38*E42</f>
-        <v>0.15091359853622255</v>
+        <f t="shared" ref="F38:F39" si="27">E38*E42</f>
+        <v>6.6263080974772341</v>
       </c>
       <c r="G38">
         <f>SQRT((D38/C38)^2+(D42/C42)^2)/(2*3.1415)</f>
@@ -1420,14 +1784,18 @@
       </c>
       <c r="I38">
         <f t="shared" si="5"/>
-        <v>2.9246481346384065E-3</v>
+        <v>0.12841533039300385</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" si="6"/>
-        <v>10.257644208440514</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.23361696697884615</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="7"/>
+        <v>7.787232232628206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>16.29</v>
       </c>
@@ -1440,12 +1808,12 @@
         <v>4.8038446141526137E-2</v>
       </c>
       <c r="E39">
-        <f t="shared" si="3"/>
-        <v>6.6477809291007189E-2</v>
+        <f t="shared" si="0"/>
+        <v>15.042613627992635</v>
       </c>
       <c r="F39">
-        <f t="shared" si="26"/>
-        <v>0.15701126847129523</v>
+        <f t="shared" si="27"/>
+        <v>6.368969627061003</v>
       </c>
       <c r="G39">
         <f>SQRT((D39/C39)^2+(D43/C43)^2)/(2*3.1415)</f>
@@ -1453,17 +1821,21 @@
       </c>
       <c r="I39">
         <f t="shared" si="5"/>
-        <v>3.0428186585290721E-3</v>
+        <v>0.12342820872356142</v>
       </c>
       <c r="M39" s="1">
         <f t="shared" si="6"/>
-        <v>9.8592796241437171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="E40">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.24305626979639744</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="7"/>
+        <v>8.1018756598799158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="E40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I40">
         <f t="shared" si="5"/>
@@ -1473,8 +1845,12 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="O40" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>26.41</v>
       </c>
@@ -1487,8 +1863,8 @@
         <v>0.21213203435596423</v>
       </c>
       <c r="E41">
-        <f t="shared" si="3"/>
-        <v>2.1016414607625689</v>
+        <f t="shared" si="0"/>
+        <v>0.47581855357819008</v>
       </c>
       <c r="I41">
         <f t="shared" si="5"/>
@@ -1498,22 +1874,26 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="O41" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>27.8</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:C43" si="27">A42/2</f>
+        <f t="shared" ref="C42:C43" si="28">A42/2</f>
         <v>13.9</v>
       </c>
       <c r="D42">
-        <f t="shared" ref="D42" si="28">0.3/SQRT(2)</f>
+        <f t="shared" ref="D42" si="29">0.3/SQRT(2)</f>
         <v>0.21213203435596423</v>
       </c>
       <c r="E42">
-        <f t="shared" si="3"/>
-        <v>2.2122541692237565</v>
+        <f t="shared" si="0"/>
+        <v>0.45202762589928058</v>
       </c>
       <c r="I42">
         <f t="shared" si="5"/>
@@ -1521,15 +1901,19 @@
       </c>
       <c r="M42" s="1">
         <f t="shared" si="6"/>
-        <v>9.9923603064980853</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.2398191873411164</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="7"/>
+        <v>7.9939729113705473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>29.68</v>
       </c>
       <c r="C43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>14.84</v>
       </c>
       <c r="D43">
@@ -1537,8 +1921,8 @@
         <v>0.21213203435596423</v>
       </c>
       <c r="E43">
-        <f t="shared" si="3"/>
-        <v>2.3618598468547156</v>
+        <f t="shared" si="0"/>
+        <v>0.42339514824797847</v>
       </c>
       <c r="I43">
         <f t="shared" si="5"/>
@@ -1546,13 +1930,17 @@
       </c>
       <c r="M43" s="1">
         <f t="shared" si="6"/>
-        <v>8.3050217311111112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="E44">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.28854346272774839</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="7"/>
+        <v>9.6181154242582814</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="E44" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I44">
         <f t="shared" si="5"/>
@@ -1562,11 +1950,15 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="E45">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="O44" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="E45" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I45">
         <f t="shared" si="5"/>
@@ -1576,8 +1968,12 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="O45" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>12.76</v>
       </c>
@@ -1590,12 +1986,12 @@
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E46">
-        <f t="shared" si="3"/>
-        <v>7.0028189529385096E-2</v>
+        <f t="shared" si="0"/>
+        <v>14.279963636363638</v>
       </c>
       <c r="F46">
         <f>E46*E50</f>
-        <v>0.10799829458117756</v>
+        <v>9.2594054737442555</v>
       </c>
       <c r="G46">
         <f>SQRT((D46/C46)^2+(D50/C50)^2)/(2*3.1415)</f>
@@ -1603,40 +1999,44 @@
       </c>
       <c r="I46">
         <f t="shared" si="5"/>
-        <v>2.0929658682491592E-3</v>
+        <v>0.17944375595912171</v>
       </c>
       <c r="J46">
         <f>-AVERAGE(I46:I48)</f>
-        <v>-2.0835989022165292E-3</v>
+        <v>-0.18025227608557626</v>
       </c>
       <c r="K46">
         <f>STDEV(I46:I48)</f>
-        <v>8.1135101080943672E-6</v>
+        <v>7.0032841123231985E-4</v>
       </c>
       <c r="M46" s="1">
         <f t="shared" si="6"/>
-        <v>14.333726342654634</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.16718330398096531</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="7"/>
+        <v>5.5727767993655108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>14.38</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47" si="29">A47/29</f>
+        <f t="shared" ref="C47" si="30">A47/29</f>
         <v>0.49586206896551727</v>
       </c>
       <c r="D47">
-        <f t="shared" ref="D47" si="30">0.3/SQRT(29)</f>
+        <f t="shared" ref="D47" si="31">0.3/SQRT(29)</f>
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E47">
-        <f t="shared" si="3"/>
-        <v>7.8918915786250612E-2</v>
+        <f t="shared" si="0"/>
+        <v>12.671233379694019</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47:F48" si="31">E47*E51</f>
-        <v>0.10726528792003864</v>
+        <f t="shared" ref="F47:F48" si="32">E47*E51</f>
+        <v>9.3226804252411473</v>
       </c>
       <c r="G47">
         <f>SQRT((D47/C47)^2+(D51/C51)^2)/(2*3.1415)</f>
@@ -1644,14 +2044,18 @@
       </c>
       <c r="I47">
         <f t="shared" si="5"/>
-        <v>2.0787604779796873E-3</v>
+        <v>0.1806700004504046</v>
       </c>
       <c r="M47" s="1">
         <f t="shared" si="6"/>
-        <v>14.431677106520951</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>0.16604859647540238</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="7"/>
+        <v>5.5349532158467465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>14.74</v>
       </c>
@@ -1664,12 +2068,12 @@
         <v>5.4772255750516606E-2</v>
       </c>
       <c r="E48">
-        <f t="shared" si="3"/>
-        <v>7.8198144974480022E-2</v>
+        <f t="shared" si="0"/>
+        <v>12.788027137042063</v>
       </c>
       <c r="F48">
-        <f t="shared" si="31"/>
-        <v>0.10728127803992653</v>
+        <f t="shared" si="32"/>
+        <v>9.3212908931587588</v>
       </c>
       <c r="G48">
         <f>SQRT((D48/C48)^2+(D52/C52)^2)/(2*3.1415)</f>
@@ -1677,17 +2081,21 @@
       </c>
       <c r="I48">
         <f t="shared" si="5"/>
-        <v>2.0790703604207416E-3</v>
+        <v>0.18064307184720252</v>
       </c>
       <c r="M48" s="1">
         <f t="shared" si="6"/>
-        <v>14.429526085845836</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="E49">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.166073349468811</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="7"/>
+        <v>5.5357783156270335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="E49" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I49">
         <f t="shared" si="5"/>
@@ -1697,8 +2105,12 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="O49" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>19.38</v>
       </c>
@@ -1711,8 +2123,8 @@
         <v>0.21213203435596423</v>
       </c>
       <c r="E50">
-        <f t="shared" si="3"/>
-        <v>1.5422117194085037</v>
+        <f t="shared" si="0"/>
+        <v>0.64841940144478849</v>
       </c>
       <c r="I50">
         <f t="shared" si="5"/>
@@ -1722,22 +2134,26 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="O50" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>17.079999999999998</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:C52" si="32">A51/2</f>
+        <f t="shared" ref="C51:C52" si="33">A51/2</f>
         <v>8.5399999999999991</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51:D52" si="33">0.3/SQRT(2)</f>
+        <f t="shared" ref="D51:D52" si="34">0.3/SQRT(2)</f>
         <v>0.21213203435596423</v>
       </c>
       <c r="E51">
-        <f t="shared" si="3"/>
-        <v>1.3591834967748833</v>
+        <f t="shared" si="0"/>
+        <v>0.73573583138173315</v>
       </c>
       <c r="I51">
         <f t="shared" si="5"/>
@@ -1745,24 +2161,28 @@
       </c>
       <c r="M51" s="1">
         <f t="shared" si="6"/>
-        <v>16.457376430751093</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.14561006964915324</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="7"/>
+        <v>4.8536689883051087</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>17.239999999999998</v>
       </c>
       <c r="C52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>8.6199999999999992</v>
       </c>
       <c r="D52">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.21213203435596423</v>
       </c>
       <c r="E52">
-        <f t="shared" si="3"/>
-        <v>1.3719158948711352</v>
+        <f t="shared" si="0"/>
+        <v>0.7289076566125291</v>
       </c>
       <c r="I52">
         <f t="shared" si="5"/>
@@ -1770,13 +2190,17 @@
       </c>
       <c r="M52" s="1">
         <f t="shared" si="6"/>
-        <v>14.063030598850119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="E53">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.17040137340808612</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="7"/>
+        <v>5.6800457802695377</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="E53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I53">
         <f t="shared" si="5"/>
@@ -1786,11 +2210,15 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="E54">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="O53" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="E54" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I54">
         <f t="shared" si="5"/>
@@ -1800,8 +2228,12 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="O54" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>12.61</v>
       </c>
@@ -1814,12 +2246,12 @@
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E55">
-        <f t="shared" si="3"/>
-        <v>6.9204974135230884E-2</v>
+        <f t="shared" si="0"/>
+        <v>14.449828390166536</v>
       </c>
       <c r="F55">
         <f>E55*E59</f>
-        <v>9.1859395537012042E-2</v>
+        <v>10.886202703098339</v>
       </c>
       <c r="G55">
         <f>SQRT((D55/C55)^2+(D59/C59)^2)/(2*3.1415)</f>
@@ -1827,40 +2259,44 @@
       </c>
       <c r="I55">
         <f t="shared" si="5"/>
-        <v>1.7802001437388722E-3</v>
+        <v>0.21097046745771056</v>
       </c>
       <c r="J55">
         <f>-AVERAGE(I55:I57)</f>
-        <v>-1.7034720777075777E-3</v>
+        <v>-0.22076508916100723</v>
       </c>
       <c r="K55">
         <f>STDEV(I55:I57)</f>
-        <v>7.591386053598526E-5</v>
+        <v>9.8336433961855145E-3</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="6"/>
-        <v>16.852037736044885</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.14219999776041428</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="7"/>
+        <v>4.739999925347143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>14.62</v>
       </c>
       <c r="C56">
-        <f t="shared" ref="C56:C57" si="34">A56/29</f>
+        <f t="shared" ref="C56:C57" si="35">A56/29</f>
         <v>0.50413793103448268</v>
       </c>
       <c r="D56">
-        <f t="shared" ref="D56:D57" si="35">0.3/SQRT(29)</f>
+        <f t="shared" ref="D56:D57" si="36">0.3/SQRT(29)</f>
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E56">
-        <f t="shared" si="3"/>
-        <v>8.0236060416897334E-2</v>
+        <f t="shared" si="0"/>
+        <v>12.463224076607389</v>
       </c>
       <c r="F56">
-        <f t="shared" ref="F56:F57" si="36">E56*E60</f>
-        <v>8.4026391323759497E-2</v>
+        <f t="shared" ref="F56:F57" si="37">E56*E60</f>
+        <v>11.90102281254625</v>
       </c>
       <c r="G56">
         <f>SQRT((D56/C56)^2+(D60/C60)^2)/(2*3.1415)</f>
@@ -1868,32 +2304,36 @@
       </c>
       <c r="I56">
         <f t="shared" si="5"/>
-        <v>1.628399501629041E-3</v>
+        <v>0.23063729515831696</v>
       </c>
       <c r="M56" s="1">
         <f t="shared" si="6"/>
-        <v>18.42299753223222</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.1300743662442235</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="7"/>
+        <v>4.3358122081407844</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>13.81</v>
       </c>
       <c r="C57">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.47620689655172416</v>
       </c>
       <c r="D57">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E57">
-        <f t="shared" si="3"/>
-        <v>7.579069728846459E-2</v>
+        <f t="shared" si="0"/>
+        <v>13.194231426502535</v>
       </c>
       <c r="F57">
-        <f t="shared" si="36"/>
-        <v>8.7814757018101361E-2</v>
+        <f t="shared" si="37"/>
+        <v>11.387607663639821</v>
       </c>
       <c r="G57">
         <f>SQRT((D57/C57)^2+(D61/C61)^2)/(2*3.1415)</f>
@@ -1901,17 +2341,21 @@
       </c>
       <c r="I57">
         <f t="shared" si="5"/>
-        <v>1.70181658775482E-3</v>
+        <v>0.22068750486699421</v>
       </c>
       <c r="M57" s="1">
         <f t="shared" si="6"/>
-        <v>17.628221640252391</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="E58">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.13593882452964726</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="7"/>
+        <v>4.5312941509882414</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="E58" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I58">
         <f t="shared" si="5"/>
@@ -1921,8 +2365,12 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="O58" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>8.34</v>
       </c>
@@ -1935,8 +2383,8 @@
         <v>0.3</v>
       </c>
       <c r="E59">
-        <f t="shared" si="3"/>
-        <v>1.3273525015342538</v>
+        <f t="shared" si="0"/>
+        <v>0.75337937649880105</v>
       </c>
       <c r="I59">
         <f t="shared" si="5"/>
@@ -1946,22 +2394,26 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="O59" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>6.58</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:C61" si="37">A60</f>
+        <f t="shared" ref="C60:C61" si="38">A60</f>
         <v>6.58</v>
       </c>
       <c r="D60">
-        <f t="shared" ref="D60:D61" si="38">0.3</f>
+        <f t="shared" ref="D60:D61" si="39">0.3</f>
         <v>0.3</v>
       </c>
       <c r="E60">
-        <f t="shared" si="3"/>
-        <v>1.0472397434167136</v>
+        <f t="shared" si="0"/>
+        <v>0.95489118541033435</v>
       </c>
       <c r="I60">
         <f t="shared" si="5"/>
@@ -1969,24 +2421,28 @@
       </c>
       <c r="M60" s="1">
         <f t="shared" si="6"/>
-        <v>19.761131615644533</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.12126632092399225</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="7"/>
+        <v>4.0422106974664089</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>7.28</v>
       </c>
       <c r="C61">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>7.28</v>
       </c>
       <c r="D61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.3</v>
       </c>
       <c r="E61">
-        <f t="shared" si="3"/>
-        <v>1.1586482267589171</v>
+        <f t="shared" si="0"/>
+        <v>0.86307472527472529</v>
       </c>
       <c r="I61">
         <f t="shared" si="5"/>
@@ -1994,13 +2450,17 @@
       </c>
       <c r="M61" s="1">
         <f t="shared" si="6"/>
-        <v>16.743173373582223</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="E62">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.14312458426220642</v>
+      </c>
+      <c r="O61">
+        <f>(5.26*9.81)/(E61*E65)</f>
+        <v>4.7708194754068804</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="E62" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I62">
         <f t="shared" si="5"/>
@@ -2010,11 +2470,15 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="E63">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="O62" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="E63" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I63">
         <f t="shared" si="5"/>
@@ -2024,8 +2488,12 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="O63" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>13.63</v>
       </c>
@@ -2038,12 +2506,12 @@
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E64">
-        <f t="shared" si="3"/>
-        <v>7.4802838815479542E-2</v>
+        <f t="shared" si="0"/>
+        <v>13.368476595744681</v>
       </c>
       <c r="F64">
         <f>E64*E68</f>
-        <v>7.4050617876586566E-2</v>
+        <v>13.504276246102485</v>
       </c>
       <c r="G64">
         <f>SQRT((D64/C64)^2+(D68/C68)^2)/(2*3.1415)</f>
@@ -2051,40 +2519,44 @@
       </c>
       <c r="I64">
         <f t="shared" si="5"/>
-        <v>1.435072806839195E-3</v>
+        <v>0.26170773685000726</v>
       </c>
       <c r="J64">
         <f>-AVERAGE(I64:I66)</f>
-        <v>-1.4240158943939864E-3</v>
+        <v>-0.26412642523610286</v>
       </c>
       <c r="K64">
         <f>STDEV(I64:I66)</f>
-        <v>6.6328742558017712E-5</v>
+        <v>1.2454584595912354E-2</v>
       </c>
       <c r="M64" s="1">
         <f t="shared" si="6"/>
-        <v>20.904862705939074</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.11463168938407778</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="7"/>
+        <v>3.8210563128025927</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>14.54</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:C66" si="39">A65/29</f>
+        <f t="shared" ref="C65:C66" si="40">A65/29</f>
         <v>0.50137931034482752</v>
       </c>
       <c r="D65">
-        <f t="shared" ref="D65:D66" si="40">0.3/SQRT(29)</f>
+        <f t="shared" ref="D65:D66" si="41">0.3/SQRT(29)</f>
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E65">
-        <f t="shared" si="3"/>
-        <v>7.9797012206681756E-2</v>
+        <f t="shared" si="0"/>
+        <v>12.531797524071528</v>
       </c>
       <c r="F65">
-        <f t="shared" ref="F65:F66" si="41">E65*E69</f>
-        <v>7.6581552220385554E-2</v>
+        <f t="shared" ref="F65:F66" si="42">E65*E69</f>
+        <v>13.057975073712413</v>
       </c>
       <c r="G65">
         <f>SQRT((D65/C65)^2+(D69/C69)^2)/(2*3.1415)</f>
@@ -2092,57 +2564,69 @@
       </c>
       <c r="I65">
         <f t="shared" si="5"/>
-        <v>1.4841213516971808E-3</v>
+        <v>0.25305858989454411</v>
       </c>
       <c r="M65" s="1">
         <f t="shared" si="6"/>
-        <v>20.213980457658138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.11854962130509679</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="7"/>
+        <v>3.9516540435032268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>15.34</v>
       </c>
       <c r="C66">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.5289655172413793</v>
       </c>
       <c r="D66">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>5.5708601453115562E-2</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E70" si="42">C66/(2*3.141592)</f>
-        <v>8.4187494308837568E-2</v>
+        <f t="shared" ref="E66:E67" si="43">(2*3.141592)/C66</f>
+        <v>11.878248761408084</v>
       </c>
       <c r="F66">
-        <f t="shared" si="41"/>
-        <v>6.9808053583826885E-2</v>
+        <f t="shared" si="42"/>
+        <v>14.324994734299251</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66" si="43">SQRT((D66/C66)^2+(D70/C70)^2)/(2*3.1415)</f>
+        <f t="shared" ref="G66" si="44">SQRT((D66/C66)^2+(D70/C70)^2)/(2*3.1415)</f>
         <v>1.9103880921041438E-2</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66" si="44">F66/51.6006</f>
-        <v>1.3528535246455833E-3</v>
+        <f t="shared" ref="I66" si="45">F66/51.6006</f>
+        <v>0.27761294896375721</v>
       </c>
       <c r="M66" s="1">
-        <f t="shared" ref="M66" si="45">(0.03*51.6006)/(E66*E70)</f>
-        <v>22.175349698600456</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="E67">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" ref="M66" si="46">(0.03*51.6006)/(E66*E70)</f>
+        <v>0.10806412349272851</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="7"/>
+        <v>3.6021374497576173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="E67" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M67" s="1" t="e">
-        <f t="shared" ref="M66:M71" si="46">(0.03*51.6006)/(C67*C71)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <f t="shared" ref="M66:M71" si="47">(0.03*51.6006)/(C67*C71)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O67" t="e">
+        <f t="shared" ref="O67:O72" si="48">(5.26*9.81)/(E67*E71)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>6.22</v>
       </c>
@@ -2155,59 +2639,81 @@
         <v>0.3</v>
       </c>
       <c r="E68">
-        <f t="shared" si="42"/>
-        <v>0.98994395198358021</v>
+        <f>(2*3.141592)/C68</f>
+        <v>1.0101581993569133</v>
       </c>
       <c r="M68" s="1" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O68" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>6.03</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:C70" si="47">A69</f>
+        <f t="shared" ref="C69:C70" si="49">A69</f>
         <v>6.03</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D70" si="48">0.3</f>
+        <f t="shared" ref="D69:D70" si="50">0.3</f>
         <v>0.3</v>
       </c>
       <c r="E69">
-        <f t="shared" si="42"/>
-        <v>0.95970450650498218</v>
+        <f t="shared" ref="E69:E70" si="51">(2*3.141592)/C69</f>
+        <v>1.0419873963515756</v>
       </c>
       <c r="M69" s="1" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O69" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>5.21</v>
       </c>
       <c r="C70">
+        <f t="shared" si="49"/>
+        <v>5.21</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="50"/>
+        <v>0.3</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="51"/>
+        <v>1.2059854126679463</v>
+      </c>
+      <c r="M70" s="1" t="e">
         <f t="shared" si="47"/>
-        <v>5.21</v>
-      </c>
-      <c r="D70">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O70" t="e">
         <f t="shared" si="48"/>
-        <v>0.3</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="42"/>
-        <v>0.82919742601840085</v>
-      </c>
-      <c r="M70" s="1" t="e">
-        <f t="shared" si="46"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="M71" s="1" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O71" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="O72" t="e">
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
     </row>
